--- a/___Estadistica_1-Notas___/__Entregables__/DavidCorzo-Ejercicio-2020-03-03.xlsx
+++ b/___Estadistica_1-Notas___/__Entregables__/DavidCorzo-Ejercicio-2020-03-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Estadistica_1-Notas___\__Entregables__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90678EA0-F31A-4F6D-AA2E-2C6622538F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E3303-D266-4CC1-B93C-833E6FE766CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,11 +124,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +143,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,26 +249,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,25 +584,25 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="18"/>
       <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
@@ -619,9 +613,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="F4" t="s">
         <v>7</v>
       </c>
@@ -630,33 +624,33 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <f>_xlfn.BINOM.DIST(A5,7,0.515,FALSE)</f>
         <v>6.3123659748525775E-3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f>B5*$C$14</f>
         <v>8.4206962104533378</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <f t="shared" ref="B6:B12" si="0">_xlfn.BINOM.DIST(A6,7,0.515,FALSE)</f>
         <v>4.691975121514131E-2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>57</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D12" si="1">B6*$C$14</f>
         <v>62.590948120998505</v>
       </c>
@@ -669,120 +663,120 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>0.14946601160287293</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>206</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f t="shared" si="1"/>
         <v>199.38765947823248</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>0.26451888651367539</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>362</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="1"/>
         <v>352.86819460924295</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>0.28088087949390278</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>365</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
         <v>374.69509324486631</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>0.17895297270848651</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>256</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
         <v>238.723265593121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>6.334074291743684E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>69</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
         <v>84.496551051860749</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>7</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>9.6083895736318019E-3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>13</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <f t="shared" si="1"/>
         <v>12.817591691224823</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>SUM(C5:C12)</f>
         <v>1334</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <f>SUM(D5:D13)</f>
         <v>1334</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -804,7 +798,7 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <f>_xlfn.POISSON.DIST(B21,$B$18,)</f>
         <v>4.5399929762484854E-5</v>
       </c>
@@ -814,8 +808,8 @@
         <f>B21+1</f>
         <v>1</v>
       </c>
-      <c r="C22" s="15">
-        <f t="shared" ref="C22:C48" si="2">_xlfn.POISSON.DIST(B22,$B$18,)</f>
+      <c r="C22" s="13">
+        <f t="shared" ref="C22:C46" si="2">_xlfn.POISSON.DIST(B22,$B$18,)</f>
         <v>4.5399929762484861E-4</v>
       </c>
     </row>
@@ -824,7 +818,7 @@
         <f t="shared" ref="B23:B30" si="3">B22+1</f>
         <v>2</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <f t="shared" si="2"/>
         <v>2.2699964881242444E-3</v>
       </c>
@@ -834,7 +828,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <f t="shared" si="2"/>
         <v>7.5666549604141483E-3</v>
       </c>
@@ -844,7 +838,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <f t="shared" si="2"/>
         <v>1.8916637401035354E-2</v>
       </c>
@@ -854,7 +848,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <f t="shared" si="2"/>
         <v>3.7833274802070715E-2</v>
       </c>
@@ -864,7 +858,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <f t="shared" si="2"/>
         <v>6.3055458003451192E-2</v>
       </c>
@@ -874,7 +868,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <f t="shared" si="2"/>
         <v>9.0079225719215977E-2</v>
       </c>
@@ -884,7 +878,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <f t="shared" si="2"/>
         <v>0.11259903214901996</v>
       </c>
@@ -894,7 +888,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <f t="shared" si="2"/>
         <v>0.1251100357211333</v>
       </c>
@@ -904,28 +898,28 @@
         <f>B30+1</f>
         <v>10</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <f t="shared" si="2"/>
         <v>0.1251100357211333</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" ref="B32:B52" si="4">B31+1</f>
+        <f t="shared" ref="B32:B46" si="4">B31+1</f>
         <v>11</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <f t="shared" si="2"/>
         <v>0.11373639611012118</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <f t="shared" si="2"/>
         <v>9.4780330091767673E-2</v>
       </c>
@@ -935,7 +929,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <f t="shared" si="2"/>
         <v>7.2907946224436637E-2</v>
       </c>
@@ -945,7 +939,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <f t="shared" si="2"/>
         <v>5.2077104446026187E-2</v>
       </c>
@@ -955,7 +949,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <f t="shared" si="2"/>
         <v>3.4718069630684127E-2</v>
       </c>
@@ -965,7 +959,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <f t="shared" si="2"/>
         <v>2.1698793519177549E-2</v>
       </c>
@@ -975,7 +969,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <f t="shared" si="2"/>
         <v>1.2763996187751522E-2</v>
       </c>
@@ -985,7 +979,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <f t="shared" si="2"/>
         <v>7.0911089931952852E-3</v>
       </c>
@@ -995,7 +989,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <f t="shared" si="2"/>
         <v>3.7321626279975249E-3</v>
       </c>
@@ -1005,7 +999,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="13">
         <f t="shared" si="2"/>
         <v>1.8660813139987594E-3</v>
       </c>
@@ -1015,7 +1009,7 @@
         <f>B41+1</f>
         <v>21</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <f t="shared" si="2"/>
         <v>8.8861014952321864E-4</v>
       </c>
@@ -1025,7 +1019,7 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="13">
         <f t="shared" si="2"/>
         <v>4.0391370432873514E-4</v>
       </c>
@@ -1035,7 +1029,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="13">
         <f t="shared" si="2"/>
         <v>1.7561465405597289E-4</v>
       </c>
@@ -1045,7 +1039,7 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="13">
         <f t="shared" si="2"/>
         <v>7.317277252332188E-5</v>
       </c>
@@ -1055,19 +1049,19 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="13">
         <f t="shared" si="2"/>
         <v>2.926910900932863E-5</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="15"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="13">
         <f>1-SUM(C21:C47)</f>
         <v>1.7680272417330833E-5</v>
       </c>
@@ -1097,7 +1091,7 @@
       <c r="C51" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <f>_xlfn.POISSON.DIST(10,12,FALSE)</f>
         <v>0.10483725588365932</v>
       </c>
